--- a/pred_ohlcv/54/2019-10-14 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-14 WAVES ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C2" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D2" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E2" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F2" t="n">
-        <v>1651.0428</v>
+        <v>39.8144</v>
       </c>
       <c r="G2" t="n">
-        <v>990.55</v>
+        <v>990.65</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>990</v>
       </c>
       <c r="F3" t="n">
-        <v>200</v>
+        <v>1651.0428</v>
       </c>
       <c r="G3" t="n">
-        <v>990.4666666666667</v>
+        <v>990.55</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>990</v>
       </c>
       <c r="F4" t="n">
-        <v>397.0316</v>
+        <v>200</v>
       </c>
       <c r="G4" t="n">
-        <v>990.3833333333333</v>
+        <v>990.4666666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C5" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="D5" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="E5" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>397.0316</v>
       </c>
       <c r="G5" t="n">
         <v>990.3833333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C6" t="n">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="D6" t="n">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E6" t="n">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="F6" t="n">
-        <v>572.4732</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>990.3833333333333</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -544,18 +564,21 @@
         <v>992</v>
       </c>
       <c r="D7" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E7" t="n">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="F7" t="n">
-        <v>59.9406</v>
+        <v>572.4732</v>
       </c>
       <c r="G7" t="n">
-        <v>990.3666666666667</v>
+        <v>990.3833333333333</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>992</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0594</v>
+        <v>59.9406</v>
       </c>
       <c r="G8" t="n">
-        <v>990.2166666666667</v>
+        <v>990.3666666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="C9" t="n">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="D9" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="E9" t="n">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>1.0594</v>
       </c>
       <c r="G9" t="n">
-        <v>990.1333333333333</v>
+        <v>990.2166666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C10" t="n">
         <v>987</v>
       </c>
       <c r="D10" t="n">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E10" t="n">
         <v>987</v>
       </c>
       <c r="F10" t="n">
-        <v>67.1747</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="n">
-        <v>990.0666666666667</v>
+        <v>990.1333333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C11" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D11" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E11" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F11" t="n">
-        <v>552.7843</v>
+        <v>67.1747</v>
       </c>
       <c r="G11" t="n">
-        <v>989.95</v>
+        <v>990.0666666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C12" t="n">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D12" t="n">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E12" t="n">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F12" t="n">
-        <v>34.431</v>
+        <v>552.7843</v>
       </c>
       <c r="G12" t="n">
-        <v>989.8833333333333</v>
+        <v>989.95</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>989</v>
       </c>
       <c r="F13" t="n">
-        <v>47.5559</v>
+        <v>34.431</v>
       </c>
       <c r="G13" t="n">
-        <v>989.8166666666667</v>
+        <v>989.8833333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C14" t="n">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D14" t="n">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E14" t="n">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F14" t="n">
-        <v>75.2475</v>
+        <v>47.5559</v>
       </c>
       <c r="G14" t="n">
-        <v>989.7666666666667</v>
+        <v>989.8166666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>990</v>
       </c>
       <c r="F15" t="n">
-        <v>518.7525000000001</v>
+        <v>75.2475</v>
       </c>
       <c r="G15" t="n">
         <v>989.7666666666667</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C16" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="D16" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="E16" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="F16" t="n">
-        <v>3.6914</v>
+        <v>518.7525000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>989.8833333333333</v>
+        <v>989.7666666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="C17" t="n">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="D17" t="n">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="E17" t="n">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="F17" t="n">
-        <v>6.6914</v>
+        <v>3.6914</v>
       </c>
       <c r="G17" t="n">
         <v>989.8833333333333</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="C18" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="D18" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="E18" t="n">
         <v>988</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>6.6914</v>
       </c>
       <c r="G18" t="n">
-        <v>989.9833333333333</v>
+        <v>989.8833333333333</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C19" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D19" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E19" t="n">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>990.0833333333334</v>
+        <v>989.9833333333333</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>994</v>
       </c>
       <c r="F20" t="n">
-        <v>8.1502</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>990.1666666666666</v>
+        <v>990.0833333333334</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C21" t="n">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="D21" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E21" t="n">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="F21" t="n">
-        <v>1188.8908</v>
+        <v>8.1502</v>
       </c>
       <c r="G21" t="n">
-        <v>990.15</v>
+        <v>990.1666666666666</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="C22" t="n">
         <v>988</v>
       </c>
       <c r="D22" t="n">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="E22" t="n">
         <v>988</v>
       </c>
       <c r="F22" t="n">
-        <v>414.6776</v>
+        <v>1188.8908</v>
       </c>
       <c r="G22" t="n">
-        <v>990.1333333333333</v>
+        <v>990.15</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C23" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="D23" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="E23" t="n">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F23" t="n">
-        <v>2193.0012</v>
+        <v>414.6776</v>
       </c>
       <c r="G23" t="n">
-        <v>990.2333333333333</v>
+        <v>990.1333333333333</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="C24" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D24" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E24" t="n">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2193.0012</v>
       </c>
       <c r="G24" t="n">
-        <v>990.3666666666667</v>
+        <v>990.2333333333333</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="C25" t="n">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D25" t="n">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="E25" t="n">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="F25" t="n">
-        <v>1018.1634</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>990.4166666666666</v>
+        <v>990.3666666666667</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C26" t="n">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D26" t="n">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="E26" t="n">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="F26" t="n">
-        <v>1190.1534</v>
+        <v>1018.1634</v>
       </c>
       <c r="G26" t="n">
-        <v>990.5333333333333</v>
+        <v>990.4166666666666</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C27" t="n">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="D27" t="n">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="E27" t="n">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>1190.1534</v>
       </c>
       <c r="G27" t="n">
-        <v>990.5666666666667</v>
+        <v>990.5333333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>991</v>
       </c>
       <c r="F28" t="n">
-        <v>104.5159</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>990.6</v>
+        <v>990.5666666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>991</v>
       </c>
       <c r="F29" t="n">
-        <v>68.7311</v>
+        <v>104.5159</v>
       </c>
       <c r="G29" t="n">
-        <v>990.7166666666667</v>
+        <v>990.6</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C30" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D30" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E30" t="n">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F30" t="n">
-        <v>1063.0363</v>
+        <v>68.7311</v>
       </c>
       <c r="G30" t="n">
-        <v>990.75</v>
+        <v>990.7166666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C31" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D31" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E31" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F31" t="n">
-        <v>1.008</v>
+        <v>1063.0363</v>
       </c>
       <c r="G31" t="n">
-        <v>990.8</v>
+        <v>990.75</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C32" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D32" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E32" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>1.008</v>
       </c>
       <c r="G32" t="n">
-        <v>990.8166666666667</v>
+        <v>990.8</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C33" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D33" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E33" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F33" t="n">
         <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>990.8666666666667</v>
+        <v>990.8166666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>992</v>
       </c>
       <c r="F34" t="n">
-        <v>243.4011</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>990.9166666666666</v>
+        <v>990.8666666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C35" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D35" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E35" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="F35" t="n">
-        <v>698.8681</v>
+        <v>243.4011</v>
       </c>
       <c r="G35" t="n">
-        <v>990.9333333333333</v>
+        <v>990.9166666666666</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C36" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D36" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E36" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F36" t="n">
-        <v>231.1437</v>
+        <v>698.8681</v>
       </c>
       <c r="G36" t="n">
-        <v>990.9166666666666</v>
+        <v>990.9333333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C37" t="n">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="D37" t="n">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="E37" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F37" t="n">
-        <v>1465.014</v>
+        <v>231.1437</v>
       </c>
       <c r="G37" t="n">
-        <v>991.0166666666667</v>
+        <v>990.9166666666666</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C38" t="n">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="D38" t="n">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="E38" t="n">
         <v>988</v>
       </c>
       <c r="F38" t="n">
-        <v>229.8766</v>
+        <v>1465.014</v>
       </c>
       <c r="G38" t="n">
-        <v>991</v>
+        <v>991.0166666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C39" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="D39" t="n">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E39" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="F39" t="n">
-        <v>42.8536</v>
+        <v>229.8766</v>
       </c>
       <c r="G39" t="n">
-        <v>991.0833333333334</v>
+        <v>991</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C40" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D40" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E40" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F40" t="n">
-        <v>391.0465</v>
+        <v>42.8536</v>
       </c>
       <c r="G40" t="n">
-        <v>991.15</v>
+        <v>991.0833333333334</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>994</v>
       </c>
       <c r="F41" t="n">
-        <v>403.809</v>
+        <v>391.0465</v>
       </c>
       <c r="G41" t="n">
-        <v>991.2166666666667</v>
+        <v>991.15</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="C42" t="n">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="D42" t="n">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="E42" t="n">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="F42" t="n">
-        <v>1090.5341</v>
+        <v>403.809</v>
       </c>
       <c r="G42" t="n">
-        <v>991.2333333333333</v>
+        <v>991.2166666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>991</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>1090.5341</v>
       </c>
       <c r="G43" t="n">
-        <v>991.25</v>
+        <v>991.2333333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C44" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D44" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E44" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>991.3166666666667</v>
+        <v>991.25</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C45" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D45" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E45" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F45" t="n">
-        <v>1732.6206</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>991.4166666666666</v>
+        <v>991.3166666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>996</v>
       </c>
       <c r="F46" t="n">
-        <v>240.9727</v>
+        <v>1732.6206</v>
       </c>
       <c r="G46" t="n">
-        <v>991.5166666666667</v>
+        <v>991.4166666666666</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C47" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D47" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E47" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F47" t="n">
-        <v>1896.2676</v>
+        <v>240.9727</v>
       </c>
       <c r="G47" t="n">
-        <v>991.6333333333333</v>
+        <v>991.5166666666667</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>997</v>
       </c>
       <c r="F48" t="n">
-        <v>144.1545</v>
+        <v>1896.2676</v>
       </c>
       <c r="G48" t="n">
-        <v>991.75</v>
+        <v>991.6333333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>997</v>
       </c>
       <c r="F49" t="n">
-        <v>998.41</v>
+        <v>144.1545</v>
       </c>
       <c r="G49" t="n">
-        <v>991.8666666666667</v>
+        <v>991.75</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C50" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D50" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E50" t="n">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F50" t="n">
-        <v>283.58</v>
+        <v>998.41</v>
       </c>
       <c r="G50" t="n">
-        <v>992</v>
+        <v>991.8666666666667</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C51" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D51" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E51" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F51" t="n">
-        <v>2970.1779</v>
+        <v>283.58</v>
       </c>
       <c r="G51" t="n">
-        <v>992.15</v>
+        <v>992</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>999</v>
       </c>
       <c r="F52" t="n">
-        <v>203.9399</v>
+        <v>2970.1779</v>
       </c>
       <c r="G52" t="n">
-        <v>992.3</v>
+        <v>992.15</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>999</v>
       </c>
       <c r="F53" t="n">
-        <v>50.6789</v>
+        <v>203.9399</v>
       </c>
       <c r="G53" t="n">
-        <v>992.45</v>
+        <v>992.3</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>999</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>50.6789</v>
       </c>
       <c r="G54" t="n">
-        <v>992.55</v>
+        <v>992.45</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>999</v>
       </c>
       <c r="F55" t="n">
-        <v>1.04204204</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>992.65</v>
+        <v>992.55</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1815,21 +1982,24 @@
         <v>999</v>
       </c>
       <c r="C56" t="n">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="D56" t="n">
         <v>999</v>
       </c>
       <c r="E56" t="n">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="F56" t="n">
-        <v>175.33</v>
+        <v>1.04204204</v>
       </c>
       <c r="G56" t="n">
-        <v>992.6833333333333</v>
+        <v>992.65</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="C57" t="n">
         <v>993</v>
       </c>
       <c r="D57" t="n">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E57" t="n">
         <v>993</v>
       </c>
       <c r="F57" t="n">
-        <v>3420.6184</v>
+        <v>175.33</v>
       </c>
       <c r="G57" t="n">
-        <v>992.7333333333333</v>
+        <v>992.6833333333333</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="C58" t="n">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="D58" t="n">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="E58" t="n">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="F58" t="n">
-        <v>100.1001</v>
+        <v>3420.6184</v>
       </c>
       <c r="G58" t="n">
-        <v>992.8333333333334</v>
+        <v>992.7333333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>999</v>
       </c>
       <c r="F59" t="n">
-        <v>37.2686</v>
+        <v>100.1001</v>
       </c>
       <c r="G59" t="n">
-        <v>992.9</v>
+        <v>992.8333333333334</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>999</v>
       </c>
       <c r="F60" t="n">
-        <v>209.59</v>
+        <v>37.2686</v>
       </c>
       <c r="G60" t="n">
-        <v>992.9833333333333</v>
+        <v>992.9</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>999</v>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>209.59</v>
       </c>
       <c r="G61" t="n">
-        <v>993.1166666666667</v>
+        <v>992.9833333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="C62" t="n">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="D62" t="n">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="E62" t="n">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>993.2</v>
+        <v>993.1166666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>995</v>
       </c>
       <c r="F63" t="n">
-        <v>3210.9761</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>993.2833333333333</v>
+        <v>993.2</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C64" t="n">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D64" t="n">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E64" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F64" t="n">
-        <v>360.1296</v>
+        <v>3210.9761</v>
       </c>
       <c r="G64" t="n">
-        <v>993.4166666666666</v>
+        <v>993.2833333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C65" t="n">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D65" t="n">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E65" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F65" t="n">
-        <v>1644.9222</v>
+        <v>360.1296</v>
       </c>
       <c r="G65" t="n">
-        <v>993.4333333333333</v>
+        <v>993.4166666666666</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2075,21 +2272,24 @@
         <v>996</v>
       </c>
       <c r="C66" t="n">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D66" t="n">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E66" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F66" t="n">
-        <v>1020.6724</v>
+        <v>1644.9222</v>
       </c>
       <c r="G66" t="n">
-        <v>993.55</v>
+        <v>993.4333333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,7 +2298,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C67" t="n">
         <v>999</v>
@@ -2107,15 +2307,18 @@
         <v>999</v>
       </c>
       <c r="E67" t="n">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F67" t="n">
-        <v>528.9868</v>
+        <v>1020.6724</v>
       </c>
       <c r="G67" t="n">
-        <v>993.6666666666666</v>
+        <v>993.55</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>999</v>
       </c>
       <c r="F68" t="n">
-        <v>82.20820000000001</v>
+        <v>528.9868</v>
       </c>
       <c r="G68" t="n">
-        <v>993.7833333333333</v>
+        <v>993.6666666666666</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2153,21 +2359,24 @@
         <v>999</v>
       </c>
       <c r="C69" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D69" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E69" t="n">
         <v>999</v>
       </c>
       <c r="F69" t="n">
-        <v>130</v>
+        <v>82.20820000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>994</v>
+        <v>993.7833333333333</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>999</v>
+      </c>
+      <c r="C70" t="n">
         <v>1000</v>
       </c>
-      <c r="C70" t="n">
-        <v>1002</v>
-      </c>
       <c r="D70" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E70" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F70" t="n">
-        <v>77.05410000000001</v>
+        <v>130</v>
       </c>
       <c r="G70" t="n">
-        <v>994.25</v>
+        <v>994</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C71" t="n">
         <v>1002</v>
       </c>
-      <c r="C71" t="n">
-        <v>1005</v>
-      </c>
       <c r="D71" t="n">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E71" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F71" t="n">
-        <v>1026.9564</v>
+        <v>77.05410000000001</v>
       </c>
       <c r="G71" t="n">
-        <v>994.5666666666667</v>
+        <v>994.25</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,7 +2443,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C72" t="n">
         <v>1005</v>
@@ -2237,15 +2452,18 @@
         <v>1005</v>
       </c>
       <c r="E72" t="n">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F72" t="n">
-        <v>80.5911</v>
+        <v>1026.9564</v>
       </c>
       <c r="G72" t="n">
-        <v>994.8333333333334</v>
+        <v>994.5666666666667</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C73" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D73" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E73" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F73" t="n">
-        <v>2077.4125</v>
+        <v>80.5911</v>
       </c>
       <c r="G73" t="n">
-        <v>995.15</v>
+        <v>994.8333333333334</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,7 +2501,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C74" t="n">
         <v>1008</v>
@@ -2289,15 +2510,18 @@
         <v>1008</v>
       </c>
       <c r="E74" t="n">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="F74" t="n">
-        <v>306.4119</v>
+        <v>2077.4125</v>
       </c>
       <c r="G74" t="n">
-        <v>995.45</v>
+        <v>995.15</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>1008</v>
       </c>
       <c r="F75" t="n">
-        <v>1025</v>
+        <v>306.4119</v>
       </c>
       <c r="G75" t="n">
-        <v>995.75</v>
+        <v>995.45</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>1008</v>
       </c>
       <c r="C76" t="n">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="D76" t="n">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="E76" t="n">
         <v>1008</v>
       </c>
       <c r="F76" t="n">
-        <v>7424.1231</v>
+        <v>1025</v>
       </c>
       <c r="G76" t="n">
-        <v>996.1</v>
+        <v>995.75</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,7 +2588,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="C77" t="n">
         <v>1016</v>
@@ -2367,15 +2597,18 @@
         <v>1016</v>
       </c>
       <c r="E77" t="n">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="F77" t="n">
-        <v>3600.0957</v>
+        <v>7424.1231</v>
       </c>
       <c r="G77" t="n">
-        <v>996.5666666666667</v>
+        <v>996.1</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,25 +2617,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C78" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D78" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E78" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F78" t="n">
-        <v>406.3082</v>
+        <v>3600.0957</v>
       </c>
       <c r="G78" t="n">
-        <v>996.9</v>
+        <v>996.5666666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2413,22 +2649,25 @@
         <v>1015</v>
       </c>
       <c r="C79" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D79" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E79" t="n">
         <v>1015</v>
       </c>
       <c r="F79" t="n">
-        <v>447.6918</v>
+        <v>406.3082</v>
       </c>
       <c r="G79" t="n">
-        <v>997.2666666666667</v>
+        <v>996.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2436,25 +2675,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="C80" t="n">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="D80" t="n">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="E80" t="n">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="F80" t="n">
-        <v>250</v>
+        <v>447.6918</v>
       </c>
       <c r="G80" t="n">
-        <v>997.7166666666667</v>
+        <v>997.2666666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2468,18 +2710,21 @@
         <v>1021</v>
       </c>
       <c r="D81" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E81" t="n">
         <v>1021</v>
       </c>
       <c r="F81" t="n">
-        <v>415.5</v>
+        <v>250</v>
       </c>
       <c r="G81" t="n">
-        <v>998.2666666666667</v>
+        <v>997.7166666666667</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2491,7 +2736,7 @@
         <v>1021</v>
       </c>
       <c r="C82" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D82" t="n">
         <v>1022</v>
@@ -2500,12 +2745,15 @@
         <v>1021</v>
       </c>
       <c r="F82" t="n">
-        <v>557.9778</v>
+        <v>415.5</v>
       </c>
       <c r="G82" t="n">
-        <v>998.8333333333334</v>
+        <v>998.2666666666667</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2517,21 +2765,24 @@
         <v>1021</v>
       </c>
       <c r="C83" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D83" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E83" t="n">
         <v>1021</v>
       </c>
       <c r="F83" t="n">
-        <v>125</v>
+        <v>557.9778</v>
       </c>
       <c r="G83" t="n">
-        <v>999.2666666666667</v>
+        <v>998.8333333333334</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>1021</v>
       </c>
       <c r="F84" t="n">
-        <v>2254.2465</v>
+        <v>125</v>
       </c>
       <c r="G84" t="n">
-        <v>999.7166666666667</v>
+        <v>999.2666666666667</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2569,21 +2823,24 @@
         <v>1021</v>
       </c>
       <c r="C85" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D85" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E85" t="n">
         <v>1021</v>
       </c>
       <c r="F85" t="n">
-        <v>1330.3155</v>
+        <v>2254.2465</v>
       </c>
       <c r="G85" t="n">
-        <v>1000.216666666667</v>
+        <v>999.7166666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,7 +2849,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C86" t="n">
         <v>1022</v>
@@ -2601,15 +2858,18 @@
         <v>1022</v>
       </c>
       <c r="E86" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F86" t="n">
-        <v>1288.1455</v>
+        <v>1330.3155</v>
       </c>
       <c r="G86" t="n">
-        <v>1000.65</v>
+        <v>1000.216666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2621,21 +2881,24 @@
         <v>1022</v>
       </c>
       <c r="C87" t="n">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D87" t="n">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E87" t="n">
         <v>1022</v>
       </c>
       <c r="F87" t="n">
-        <v>1551.4001</v>
+        <v>1288.1455</v>
       </c>
       <c r="G87" t="n">
-        <v>1001.216666666667</v>
+        <v>1000.65</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C88" t="n">
         <v>1025</v>
       </c>
       <c r="D88" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E88" t="n">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F88" t="n">
-        <v>945.8772</v>
+        <v>1551.4001</v>
       </c>
       <c r="G88" t="n">
-        <v>1001.783333333333</v>
+        <v>1001.216666666667</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>1025</v>
       </c>
       <c r="F89" t="n">
-        <v>282.8058</v>
+        <v>945.8772</v>
       </c>
       <c r="G89" t="n">
-        <v>1002.35</v>
+        <v>1001.783333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C90" t="n">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="D90" t="n">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="E90" t="n">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="F90" t="n">
-        <v>25.6282</v>
+        <v>282.8058</v>
       </c>
       <c r="G90" t="n">
-        <v>1002.883333333333</v>
+        <v>1002.35</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C91" t="n">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D91" t="n">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E91" t="n">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F91" t="n">
-        <v>560</v>
+        <v>25.6282</v>
       </c>
       <c r="G91" t="n">
-        <v>1003.416666666667</v>
+        <v>1002.883333333333</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>1024</v>
       </c>
       <c r="F92" t="n">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="G92" t="n">
-        <v>1003.983333333333</v>
+        <v>1003.416666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,7 +3052,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="C93" t="n">
         <v>1024</v>
@@ -2783,15 +3061,18 @@
         <v>1024</v>
       </c>
       <c r="E93" t="n">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="F93" t="n">
-        <v>3652.7643</v>
+        <v>280</v>
       </c>
       <c r="G93" t="n">
-        <v>1004.516666666667</v>
+        <v>1003.983333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C94" t="n">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="D94" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E94" t="n">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="F94" t="n">
-        <v>4949.3824</v>
+        <v>3652.7643</v>
       </c>
       <c r="G94" t="n">
-        <v>1004.966666666667</v>
+        <v>1004.516666666667</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="C95" t="n">
         <v>1019</v>
       </c>
       <c r="D95" t="n">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="E95" t="n">
         <v>1019</v>
       </c>
       <c r="F95" t="n">
-        <v>399.92</v>
+        <v>4949.3824</v>
       </c>
       <c r="G95" t="n">
-        <v>1005.45</v>
+        <v>1004.966666666667</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2855,21 +3142,24 @@
         <v>1019</v>
       </c>
       <c r="C96" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D96" t="n">
         <v>1019</v>
       </c>
       <c r="E96" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F96" t="n">
-        <v>347.1815</v>
+        <v>399.92</v>
       </c>
       <c r="G96" t="n">
-        <v>1005.933333333333</v>
+        <v>1005.45</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>1019</v>
+      </c>
+      <c r="C97" t="n">
         <v>1018</v>
       </c>
-      <c r="C97" t="n">
-        <v>1017</v>
-      </c>
       <c r="D97" t="n">
+        <v>1019</v>
+      </c>
+      <c r="E97" t="n">
         <v>1018</v>
       </c>
-      <c r="E97" t="n">
-        <v>1017</v>
-      </c>
       <c r="F97" t="n">
-        <v>361.8779</v>
+        <v>347.1815</v>
       </c>
       <c r="G97" t="n">
-        <v>1006.283333333333</v>
+        <v>1005.933333333333</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C98" t="n">
         <v>1017</v>
       </c>
       <c r="D98" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E98" t="n">
         <v>1017</v>
       </c>
       <c r="F98" t="n">
-        <v>430.021</v>
+        <v>361.8779</v>
       </c>
       <c r="G98" t="n">
-        <v>1006.766666666667</v>
+        <v>1006.283333333333</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="C99" t="n">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D99" t="n">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="E99" t="n">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="F99" t="n">
-        <v>1467.7103</v>
+        <v>430.021</v>
       </c>
       <c r="G99" t="n">
-        <v>1007.216666666667</v>
+        <v>1006.766666666667</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="C100" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="D100" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="E100" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="F100" t="n">
-        <v>17.2875</v>
+        <v>1467.7103</v>
       </c>
       <c r="G100" t="n">
-        <v>1007.616666666667</v>
+        <v>1007.216666666667</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,21 +3287,24 @@
         <v>1018</v>
       </c>
       <c r="C101" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D101" t="n">
         <v>1018</v>
       </c>
       <c r="E101" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="F101" t="n">
-        <v>1125.3224</v>
+        <v>17.2875</v>
       </c>
       <c r="G101" t="n">
-        <v>1008</v>
+        <v>1007.616666666667</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3011,21 +3316,24 @@
         <v>1018</v>
       </c>
       <c r="C102" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D102" t="n">
         <v>1018</v>
       </c>
       <c r="E102" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F102" t="n">
-        <v>976.043</v>
+        <v>1125.3224</v>
       </c>
       <c r="G102" t="n">
-        <v>1008.45</v>
+        <v>1008</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C103" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D103" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E103" t="n">
-        <v>1008</v>
+        <v>1018</v>
       </c>
       <c r="F103" t="n">
-        <v>10553.0261</v>
+        <v>976.043</v>
       </c>
       <c r="G103" t="n">
-        <v>1008.916666666667</v>
+        <v>1008.45</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C104" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D104" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E104" t="n">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="F104" t="n">
-        <v>416.6747</v>
+        <v>10553.0261</v>
       </c>
       <c r="G104" t="n">
-        <v>1009.316666666667</v>
+        <v>1008.916666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,7 +3400,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C105" t="n">
         <v>1018</v>
@@ -3095,15 +3409,18 @@
         <v>1018</v>
       </c>
       <c r="E105" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="F105" t="n">
-        <v>2467.5417</v>
+        <v>416.6747</v>
       </c>
       <c r="G105" t="n">
-        <v>1009.683333333333</v>
+        <v>1009.316666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,7 +3429,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C106" t="n">
         <v>1018</v>
@@ -3121,15 +3438,18 @@
         <v>1018</v>
       </c>
       <c r="E106" t="n">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="F106" t="n">
-        <v>404.6194</v>
+        <v>2467.5417</v>
       </c>
       <c r="G106" t="n">
-        <v>1010.05</v>
+        <v>1009.683333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>1018</v>
       </c>
       <c r="F107" t="n">
-        <v>57.7541</v>
+        <v>404.6194</v>
       </c>
       <c r="G107" t="n">
-        <v>1010.4</v>
+        <v>1010.05</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C108" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D108" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E108" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F108" t="n">
-        <v>101.45</v>
+        <v>57.7541</v>
       </c>
       <c r="G108" t="n">
-        <v>1010.766666666667</v>
+        <v>1010.4</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C109" t="n">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="D109" t="n">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="E109" t="n">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="F109" t="n">
-        <v>218.3092</v>
+        <v>101.45</v>
       </c>
       <c r="G109" t="n">
-        <v>1011.083333333333</v>
+        <v>1010.766666666667</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C110" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D110" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E110" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F110" t="n">
-        <v>150</v>
+        <v>218.3092</v>
       </c>
       <c r="G110" t="n">
-        <v>1011.366666666667</v>
+        <v>1011.083333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C111" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D111" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E111" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F111" t="n">
-        <v>374.5641</v>
+        <v>150</v>
       </c>
       <c r="G111" t="n">
-        <v>1011.65</v>
+        <v>1011.366666666667</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C112" t="n">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="D112" t="n">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E112" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F112" t="n">
-        <v>1489.041</v>
+        <v>374.5641</v>
       </c>
       <c r="G112" t="n">
-        <v>1012.016666666667</v>
+        <v>1011.65</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C113" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D113" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E113" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F113" t="n">
-        <v>870</v>
+        <v>1489.041</v>
       </c>
       <c r="G113" t="n">
-        <v>1012.4</v>
+        <v>1012.016666666667</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,7 +3661,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C114" t="n">
         <v>1022</v>
@@ -3329,15 +3670,18 @@
         <v>1022</v>
       </c>
       <c r="E114" t="n">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="F114" t="n">
-        <v>26.779</v>
+        <v>870</v>
       </c>
       <c r="G114" t="n">
-        <v>1012.783333333333</v>
+        <v>1012.4</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>1022</v>
       </c>
       <c r="F115" t="n">
-        <v>166.8928</v>
+        <v>26.779</v>
       </c>
       <c r="G115" t="n">
-        <v>1013.166666666667</v>
+        <v>1012.783333333333</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>1022</v>
       </c>
       <c r="F116" t="n">
-        <v>842.93146947</v>
+        <v>166.8928</v>
       </c>
       <c r="G116" t="n">
-        <v>1013.65</v>
+        <v>1013.166666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C117" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="D117" t="n">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="E117" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="F117" t="n">
-        <v>210</v>
+        <v>842.93146947</v>
       </c>
       <c r="G117" t="n">
-        <v>1014.066666666667</v>
+        <v>1013.65</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C118" t="n">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D118" t="n">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E118" t="n">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="F118" t="n">
-        <v>20.2981</v>
+        <v>210</v>
       </c>
       <c r="G118" t="n">
-        <v>1014.433333333333</v>
+        <v>1014.066666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>1021</v>
       </c>
       <c r="F119" t="n">
-        <v>0.3355</v>
+        <v>20.2981</v>
       </c>
       <c r="G119" t="n">
-        <v>1014.8</v>
+        <v>1014.433333333333</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C120" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D120" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E120" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F120" t="n">
-        <v>10</v>
+        <v>0.3355</v>
       </c>
       <c r="G120" t="n">
-        <v>1015.15</v>
+        <v>1014.8</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,12 +3876,15 @@
         <v>1020</v>
       </c>
       <c r="F121" t="n">
-        <v>209.9499</v>
+        <v>10</v>
       </c>
       <c r="G121" t="n">
-        <v>1015.5</v>
+        <v>1015.15</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C122" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D122" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E122" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F122" t="n">
-        <v>466.8099</v>
+        <v>209.9499</v>
       </c>
       <c r="G122" t="n">
-        <v>1015.933333333333</v>
+        <v>1015.5</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C123" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D123" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E123" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F123" t="n">
-        <v>1246.1353</v>
+        <v>466.8099</v>
       </c>
       <c r="G123" t="n">
-        <v>1016.35</v>
+        <v>1015.933333333333</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C124" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D124" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E124" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F124" t="n">
-        <v>639.2755</v>
+        <v>1246.1353</v>
       </c>
       <c r="G124" t="n">
-        <v>1016.683333333333</v>
+        <v>1016.35</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C125" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D125" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E125" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F125" t="n">
-        <v>216.06</v>
+        <v>639.2755</v>
       </c>
       <c r="G125" t="n">
-        <v>1017.066666666667</v>
+        <v>1016.683333333333</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="C126" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="D126" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="E126" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="F126" t="n">
-        <v>1532.6114</v>
+        <v>216.06</v>
       </c>
       <c r="G126" t="n">
-        <v>1017.3</v>
+        <v>1017.066666666667</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C127" t="n">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D127" t="n">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E127" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F127" t="n">
-        <v>308.2787</v>
+        <v>1532.6114</v>
       </c>
       <c r="G127" t="n">
-        <v>1017.633333333333</v>
+        <v>1017.3</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3693,15 +4076,18 @@
         <v>1019</v>
       </c>
       <c r="E128" t="n">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F128" t="n">
-        <v>42.2498</v>
+        <v>308.2787</v>
       </c>
       <c r="G128" t="n">
-        <v>1017.966666666667</v>
+        <v>1017.633333333333</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,12 +4108,15 @@
         <v>1019</v>
       </c>
       <c r="F129" t="n">
-        <v>47.9194</v>
+        <v>42.2498</v>
       </c>
       <c r="G129" t="n">
-        <v>1018.283333333333</v>
+        <v>1017.966666666667</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="C130" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="D130" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="E130" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="F130" t="n">
-        <v>181.2481</v>
+        <v>47.9194</v>
       </c>
       <c r="G130" t="n">
-        <v>1018.5</v>
+        <v>1018.283333333333</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3765,21 +4157,24 @@
         <v>1015</v>
       </c>
       <c r="C131" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D131" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E131" t="n">
         <v>1015</v>
       </c>
       <c r="F131" t="n">
-        <v>181.0448</v>
+        <v>181.2481</v>
       </c>
       <c r="G131" t="n">
-        <v>1018.7</v>
+        <v>1018.5</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C132" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E132" t="n">
         <v>1015</v>
       </c>
-      <c r="D132" t="n">
-        <v>1015</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1012</v>
-      </c>
       <c r="F132" t="n">
-        <v>280.2976</v>
+        <v>181.0448</v>
       </c>
       <c r="G132" t="n">
-        <v>1018.866666666667</v>
+        <v>1018.7</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C133" t="n">
-        <v>1006</v>
+        <v>1015</v>
       </c>
       <c r="D133" t="n">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="E133" t="n">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="F133" t="n">
-        <v>626.9482</v>
+        <v>280.2976</v>
       </c>
       <c r="G133" t="n">
-        <v>1018.833333333333</v>
+        <v>1018.866666666667</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C134" t="n">
         <v>1006</v>
       </c>
-      <c r="C134" t="n">
-        <v>1004</v>
-      </c>
       <c r="D134" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E134" t="n">
         <v>1006</v>
       </c>
-      <c r="E134" t="n">
-        <v>1004</v>
-      </c>
       <c r="F134" t="n">
-        <v>1413.4452</v>
+        <v>626.9482</v>
       </c>
       <c r="G134" t="n">
-        <v>1018.766666666667</v>
+        <v>1018.833333333333</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C135" t="n">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D135" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E135" t="n">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F135" t="n">
-        <v>67.12220000000001</v>
+        <v>1413.4452</v>
       </c>
       <c r="G135" t="n">
-        <v>1018.783333333333</v>
+        <v>1018.766666666667</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="C136" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="D136" t="n">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="E136" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="F136" t="n">
-        <v>962.3884</v>
+        <v>67.12220000000001</v>
       </c>
       <c r="G136" t="n">
-        <v>1018.55</v>
+        <v>1018.783333333333</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C137" t="n">
         <v>1002</v>
       </c>
-      <c r="C137" t="n">
-        <v>1008</v>
-      </c>
       <c r="D137" t="n">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E137" t="n">
         <v>1002</v>
       </c>
       <c r="F137" t="n">
-        <v>25</v>
+        <v>962.3884</v>
       </c>
       <c r="G137" t="n">
-        <v>1018.416666666667</v>
+        <v>1018.55</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C138" t="n">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="D138" t="n">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="E138" t="n">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F138" t="n">
-        <v>429.1526</v>
+        <v>25</v>
       </c>
       <c r="G138" t="n">
-        <v>1018.233333333333</v>
+        <v>1018.416666666667</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +4398,15 @@
         <v>1004</v>
       </c>
       <c r="F139" t="n">
-        <v>293.0333</v>
+        <v>429.1526</v>
       </c>
       <c r="G139" t="n">
-        <v>1018.033333333333</v>
+        <v>1018.233333333333</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C140" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D140" t="n">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E140" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F140" t="n">
-        <v>272.33</v>
+        <v>293.0333</v>
       </c>
       <c r="G140" t="n">
-        <v>1017.766666666667</v>
+        <v>1018.033333333333</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C141" t="n">
         <v>1005</v>
       </c>
       <c r="D141" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E141" t="n">
         <v>1005</v>
       </c>
       <c r="F141" t="n">
-        <v>37.114</v>
+        <v>272.33</v>
       </c>
       <c r="G141" t="n">
-        <v>1017.5</v>
+        <v>1017.766666666667</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C142" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D142" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E142" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F142" t="n">
-        <v>647.2785</v>
+        <v>37.114</v>
       </c>
       <c r="G142" t="n">
-        <v>1017.183333333333</v>
+        <v>1017.5</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C143" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D143" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E143" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F143" t="n">
-        <v>420</v>
+        <v>647.2785</v>
       </c>
       <c r="G143" t="n">
-        <v>1016.866666666667</v>
+        <v>1017.183333333333</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C144" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D144" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E144" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F144" t="n">
-        <v>6.3429</v>
+        <v>420</v>
       </c>
       <c r="G144" t="n">
-        <v>1016.566666666667</v>
+        <v>1016.866666666667</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C145" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D145" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E145" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="F145" t="n">
-        <v>3914.1643</v>
+        <v>6.3429</v>
       </c>
       <c r="G145" t="n">
-        <v>1016.266666666667</v>
+        <v>1016.566666666667</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C146" t="n">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="D146" t="n">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="E146" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="F146" t="n">
-        <v>738.8143</v>
+        <v>3914.1643</v>
       </c>
       <c r="G146" t="n">
-        <v>1015.85</v>
+        <v>1016.266666666667</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C147" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D147" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E147" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F147" t="n">
-        <v>41.6681</v>
+        <v>738.8143</v>
       </c>
       <c r="G147" t="n">
-        <v>1015.433333333333</v>
+        <v>1015.85</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>1000</v>
       </c>
       <c r="F148" t="n">
-        <v>31.7806</v>
+        <v>41.6681</v>
       </c>
       <c r="G148" t="n">
-        <v>1015.016666666667</v>
+        <v>1015.433333333333</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C149" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D149" t="n">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E149" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="F149" t="n">
-        <v>225.3699</v>
+        <v>31.7806</v>
       </c>
       <c r="G149" t="n">
-        <v>1014.55</v>
+        <v>1015.016666666667</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>998</v>
+      </c>
+      <c r="C150" t="n">
         <v>997</v>
       </c>
-      <c r="C150" t="n">
-        <v>993</v>
-      </c>
       <c r="D150" t="n">
+        <v>998</v>
+      </c>
+      <c r="E150" t="n">
         <v>997</v>
       </c>
-      <c r="E150" t="n">
-        <v>993</v>
-      </c>
       <c r="F150" t="n">
-        <v>360.0486</v>
+        <v>225.3699</v>
       </c>
       <c r="G150" t="n">
-        <v>1014.066666666667</v>
+        <v>1014.55</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C151" t="n">
         <v>993</v>
       </c>
       <c r="D151" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E151" t="n">
         <v>993</v>
       </c>
       <c r="F151" t="n">
-        <v>301.5849</v>
+        <v>360.0486</v>
       </c>
       <c r="G151" t="n">
-        <v>1013.55</v>
+        <v>1014.066666666667</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C152" t="n">
         <v>993</v>
       </c>
       <c r="D152" t="n">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E152" t="n">
         <v>993</v>
       </c>
       <c r="F152" t="n">
-        <v>2041.6269</v>
+        <v>301.5849</v>
       </c>
       <c r="G152" t="n">
-        <v>1013.033333333333</v>
+        <v>1013.55</v>
       </c>
       <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4337,21 +4795,24 @@
         <v>995</v>
       </c>
       <c r="C153" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D153" t="n">
         <v>995</v>
       </c>
       <c r="E153" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F153" t="n">
-        <v>379.7424</v>
+        <v>2041.6269</v>
       </c>
       <c r="G153" t="n">
-        <v>1012.533333333333</v>
+        <v>1013.033333333333</v>
       </c>
       <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4363,21 +4824,24 @@
         <v>995</v>
       </c>
       <c r="C154" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D154" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E154" t="n">
         <v>994</v>
       </c>
       <c r="F154" t="n">
-        <v>920.8681</v>
+        <v>379.7424</v>
       </c>
       <c r="G154" t="n">
-        <v>1012.15</v>
+        <v>1012.533333333333</v>
       </c>
       <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C155" t="n">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="D155" t="n">
+        <v>996</v>
+      </c>
+      <c r="E155" t="n">
         <v>994</v>
       </c>
-      <c r="E155" t="n">
-        <v>993</v>
-      </c>
       <c r="F155" t="n">
-        <v>1588</v>
+        <v>920.8681</v>
       </c>
       <c r="G155" t="n">
-        <v>1011.716666666667</v>
+        <v>1012.15</v>
       </c>
       <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4418,18 +4885,21 @@
         <v>993</v>
       </c>
       <c r="D156" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E156" t="n">
         <v>993</v>
       </c>
       <c r="F156" t="n">
-        <v>2181.7309</v>
+        <v>1588</v>
       </c>
       <c r="G156" t="n">
-        <v>1011.3</v>
+        <v>1011.716666666667</v>
       </c>
       <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4441,21 +4911,24 @@
         <v>993</v>
       </c>
       <c r="C157" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D157" t="n">
         <v>993</v>
       </c>
       <c r="E157" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F157" t="n">
-        <v>1998.2197</v>
+        <v>2181.7309</v>
       </c>
       <c r="G157" t="n">
-        <v>1010.883333333333</v>
+        <v>1011.3</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>993</v>
+      </c>
+      <c r="C158" t="n">
         <v>992</v>
       </c>
-      <c r="C158" t="n">
+      <c r="D158" t="n">
         <v>993</v>
-      </c>
-      <c r="D158" t="n">
-        <v>996</v>
       </c>
       <c r="E158" t="n">
         <v>992</v>
       </c>
       <c r="F158" t="n">
-        <v>1178.47</v>
+        <v>1998.2197</v>
       </c>
       <c r="G158" t="n">
-        <v>1010.483333333333</v>
+        <v>1010.883333333333</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>992</v>
+      </c>
+      <c r="C159" t="n">
         <v>993</v>
       </c>
-      <c r="C159" t="n">
-        <v>992</v>
-      </c>
       <c r="D159" t="n">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="E159" t="n">
         <v>992</v>
       </c>
       <c r="F159" t="n">
-        <v>1541.1467</v>
+        <v>1178.47</v>
       </c>
       <c r="G159" t="n">
-        <v>1009.983333333333</v>
+        <v>1010.483333333333</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C160" t="n">
         <v>992</v>
       </c>
       <c r="D160" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="E160" t="n">
         <v>992</v>
       </c>
       <c r="F160" t="n">
-        <v>1336</v>
+        <v>1541.1467</v>
       </c>
       <c r="G160" t="n">
-        <v>1009.55</v>
+        <v>1009.983333333333</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4551,15 +5033,18 @@
         <v>992</v>
       </c>
       <c r="E161" t="n">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F161" t="n">
-        <v>2662.9746</v>
+        <v>1336</v>
       </c>
       <c r="G161" t="n">
-        <v>1009.133333333333</v>
+        <v>1009.55</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4571,21 +5056,24 @@
         <v>992</v>
       </c>
       <c r="C162" t="n">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="D162" t="n">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="E162" t="n">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F162" t="n">
-        <v>2598.57</v>
+        <v>2662.9746</v>
       </c>
       <c r="G162" t="n">
-        <v>1008.783333333333</v>
+        <v>1009.133333333333</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C163" t="n">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="D163" t="n">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="E163" t="n">
         <v>992</v>
       </c>
       <c r="F163" t="n">
-        <v>1594.7089</v>
+        <v>2598.57</v>
       </c>
       <c r="G163" t="n">
-        <v>1008.333333333333</v>
+        <v>1008.783333333333</v>
       </c>
       <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>994</v>
+      </c>
+      <c r="C164" t="n">
         <v>992</v>
       </c>
-      <c r="C164" t="n">
+      <c r="D164" t="n">
         <v>994</v>
-      </c>
-      <c r="D164" t="n">
-        <v>996</v>
       </c>
       <c r="E164" t="n">
         <v>992</v>
       </c>
       <c r="F164" t="n">
-        <v>2247</v>
+        <v>1594.7089</v>
       </c>
       <c r="G164" t="n">
-        <v>1007.933333333333</v>
+        <v>1008.333333333333</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C165" t="n">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="D165" t="n">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E165" t="n">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F165" t="n">
-        <v>2607.161</v>
+        <v>2247</v>
       </c>
       <c r="G165" t="n">
-        <v>1007.616666666667</v>
+        <v>1007.933333333333</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C166" t="n">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D166" t="n">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E166" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F166" t="n">
-        <v>2790</v>
+        <v>2607.161</v>
       </c>
       <c r="G166" t="n">
-        <v>1007.266666666667</v>
+        <v>1007.616666666667</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4701,21 +5201,24 @@
         <v>995</v>
       </c>
       <c r="C167" t="n">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D167" t="n">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="E167" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F167" t="n">
-        <v>177.6519</v>
+        <v>2790</v>
       </c>
       <c r="G167" t="n">
-        <v>1006.883333333333</v>
+        <v>1007.266666666667</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C168" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D168" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E168" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F168" t="n">
-        <v>397</v>
+        <v>177.6519</v>
       </c>
       <c r="G168" t="n">
-        <v>1006.466666666667</v>
+        <v>1006.883333333333</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C169" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D169" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E169" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F169" t="n">
-        <v>1719</v>
+        <v>397</v>
       </c>
       <c r="G169" t="n">
-        <v>1006.133333333333</v>
+        <v>1006.466666666667</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C170" t="n">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="D170" t="n">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E170" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F170" t="n">
-        <v>1884.8194</v>
+        <v>1719</v>
       </c>
       <c r="G170" t="n">
-        <v>1005.883333333333</v>
+        <v>1006.133333333333</v>
       </c>
       <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C171" t="n">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="D171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E171" t="n">
         <v>997</v>
       </c>
-      <c r="E171" t="n">
-        <v>996</v>
-      </c>
       <c r="F171" t="n">
-        <v>2240</v>
+        <v>1884.8194</v>
       </c>
       <c r="G171" t="n">
-        <v>1005.55</v>
+        <v>1005.883333333333</v>
       </c>
       <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4831,21 +5346,24 @@
         <v>996</v>
       </c>
       <c r="C172" t="n">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D172" t="n">
+        <v>997</v>
+      </c>
+      <c r="E172" t="n">
         <v>996</v>
       </c>
-      <c r="E172" t="n">
-        <v>995</v>
-      </c>
       <c r="F172" t="n">
-        <v>2225</v>
+        <v>2240</v>
       </c>
       <c r="G172" t="n">
-        <v>1005.116666666667</v>
+        <v>1005.55</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C173" t="n">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D173" t="n">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E173" t="n">
         <v>995</v>
       </c>
       <c r="F173" t="n">
-        <v>3200.046</v>
+        <v>2225</v>
       </c>
       <c r="G173" t="n">
-        <v>1004.75</v>
+        <v>1005.116666666667</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C174" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D174" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="E174" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F174" t="n">
-        <v>1569.5546</v>
+        <v>3200.046</v>
       </c>
       <c r="G174" t="n">
-        <v>1004.333333333333</v>
+        <v>1004.75</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4909,7 +5433,7 @@
         <v>996</v>
       </c>
       <c r="C175" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D175" t="n">
         <v>997</v>
@@ -4918,12 +5442,15 @@
         <v>996</v>
       </c>
       <c r="F175" t="n">
-        <v>650</v>
+        <v>1569.5546</v>
       </c>
       <c r="G175" t="n">
-        <v>1003.9</v>
+        <v>1004.333333333333</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4935,21 +5462,24 @@
         <v>996</v>
       </c>
       <c r="C176" t="n">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D176" t="n">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="E176" t="n">
         <v>996</v>
       </c>
       <c r="F176" t="n">
-        <v>3955.4923</v>
+        <v>650</v>
       </c>
       <c r="G176" t="n">
-        <v>1003.5</v>
+        <v>1003.9</v>
       </c>
       <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
+        <v>996</v>
+      </c>
+      <c r="C177" t="n">
         <v>998</v>
       </c>
-      <c r="C177" t="n">
-        <v>999</v>
-      </c>
       <c r="D177" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E177" t="n">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F177" t="n">
-        <v>2123.9837</v>
+        <v>3955.4923</v>
       </c>
       <c r="G177" t="n">
-        <v>1003.183333333333</v>
+        <v>1003.5</v>
       </c>
       <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C178" t="n">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D178" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E178" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F178" t="n">
-        <v>2854.94</v>
+        <v>2123.9837</v>
       </c>
       <c r="G178" t="n">
-        <v>1002.866666666667</v>
+        <v>1003.183333333333</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,10 +5546,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C179" t="n">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="D179" t="n">
         <v>1002</v>
@@ -5022,12 +5558,15 @@
         <v>999</v>
       </c>
       <c r="F179" t="n">
-        <v>2176</v>
+        <v>2854.94</v>
       </c>
       <c r="G179" t="n">
-        <v>1002.5</v>
+        <v>1002.866666666667</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C180" t="n">
+        <v>999</v>
+      </c>
+      <c r="D180" t="n">
         <v>1002</v>
       </c>
-      <c r="D180" t="n">
-        <v>1003</v>
-      </c>
       <c r="E180" t="n">
         <v>999</v>
       </c>
       <c r="F180" t="n">
-        <v>3306.7786</v>
+        <v>2176</v>
       </c>
       <c r="G180" t="n">
-        <v>1002.2</v>
+        <v>1002.5</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5065,21 +5607,24 @@
         <v>999</v>
       </c>
       <c r="C181" t="n">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="D181" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E181" t="n">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F181" t="n">
-        <v>3840.3673</v>
+        <v>3306.7786</v>
       </c>
       <c r="G181" t="n">
-        <v>1001.85</v>
+        <v>1002.2</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5094,18 +5639,21 @@
         <v>999</v>
       </c>
       <c r="D182" t="n">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E182" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F182" t="n">
-        <v>3955.5776</v>
+        <v>3840.3673</v>
       </c>
       <c r="G182" t="n">
-        <v>1001.483333333333</v>
+        <v>1001.85</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C183" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D183" t="n">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E183" t="n">
         <v>999</v>
       </c>
       <c r="F183" t="n">
-        <v>2997</v>
+        <v>3955.5776</v>
       </c>
       <c r="G183" t="n">
-        <v>1001.15</v>
+        <v>1001.483333333333</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C184" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D184" t="n">
         <v>1010</v>
       </c>
       <c r="E184" t="n">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F184" t="n">
-        <v>2246</v>
+        <v>2997</v>
       </c>
       <c r="G184" t="n">
-        <v>1000.866666666667</v>
+        <v>1001.15</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C185" t="n">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D185" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E185" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F185" t="n">
-        <v>2252</v>
+        <v>2246</v>
       </c>
       <c r="G185" t="n">
-        <v>1000.6</v>
+        <v>1000.866666666667</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C186" t="n">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D186" t="n">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="E186" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F186" t="n">
-        <v>1785</v>
+        <v>2252</v>
       </c>
       <c r="G186" t="n">
-        <v>1000.4</v>
+        <v>1000.6</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5221,21 +5781,24 @@
         <v>1004</v>
       </c>
       <c r="C187" t="n">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D187" t="n">
         <v>1004</v>
       </c>
       <c r="E187" t="n">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F187" t="n">
-        <v>2298</v>
+        <v>1785</v>
       </c>
       <c r="G187" t="n">
-        <v>1000.15</v>
+        <v>1000.4</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C188" t="n">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D188" t="n">
         <v>1004</v>
       </c>
       <c r="E188" t="n">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F188" t="n">
-        <v>2225</v>
+        <v>2298</v>
       </c>
       <c r="G188" t="n">
-        <v>999.8666666666667</v>
+        <v>1000.15</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C189" t="n">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="D189" t="n">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="E189" t="n">
         <v>1001</v>
       </c>
       <c r="F189" t="n">
-        <v>2240.5551</v>
+        <v>2225</v>
       </c>
       <c r="G189" t="n">
-        <v>999.7</v>
+        <v>999.8666666666667</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="C190" t="n">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="D190" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E190" t="n">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F190" t="n">
-        <v>3608.1372</v>
+        <v>2240.5551</v>
       </c>
       <c r="G190" t="n">
-        <v>999.5166666666667</v>
+        <v>999.7</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C191" t="n">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="D191" t="n">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E191" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="F191" t="n">
-        <v>3886.8397</v>
+        <v>3608.1372</v>
       </c>
       <c r="G191" t="n">
-        <v>999.25</v>
+        <v>999.5166666666667</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C192" t="n">
         <v>1001</v>
       </c>
-      <c r="C192" t="n">
-        <v>1007</v>
-      </c>
       <c r="D192" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E192" t="n">
         <v>1000</v>
       </c>
       <c r="F192" t="n">
-        <v>2042.4461</v>
+        <v>3886.8397</v>
       </c>
       <c r="G192" t="n">
-        <v>999.1166666666667</v>
+        <v>999.25</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C193" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D193" t="n">
         <v>1007</v>
       </c>
       <c r="E193" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F193" t="n">
-        <v>1408.3096</v>
+        <v>2042.4461</v>
       </c>
       <c r="G193" t="n">
         <v>999.1166666666667</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C194" t="n">
         <v>1006</v>
       </c>
       <c r="D194" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E194" t="n">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="F194" t="n">
-        <v>593.1158</v>
+        <v>1408.3096</v>
       </c>
       <c r="G194" t="n">
-        <v>999.15</v>
+        <v>999.1166666666667</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5438,12 +6022,15 @@
         <v>1006</v>
       </c>
       <c r="F195" t="n">
-        <v>221.1518</v>
+        <v>593.1158</v>
       </c>
       <c r="G195" t="n">
-        <v>999.1</v>
+        <v>999.15</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5455,541 +6042,24 @@
         <v>1006</v>
       </c>
       <c r="C196" t="n">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D196" t="n">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="E196" t="n">
         <v>1006</v>
       </c>
       <c r="F196" t="n">
-        <v>2802.664</v>
+        <v>221.1518</v>
       </c>
       <c r="G196" t="n">
-        <v>999.25</v>
+        <v>999.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>1011</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1012</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1012</v>
-      </c>
-      <c r="E197" t="n">
-        <v>1011</v>
-      </c>
-      <c r="F197" t="n">
-        <v>516.6093</v>
-      </c>
-      <c r="G197" t="n">
-        <v>999.3166666666667</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>1012</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1012</v>
-      </c>
-      <c r="D198" t="n">
-        <v>1012</v>
-      </c>
-      <c r="E198" t="n">
-        <v>1012</v>
-      </c>
-      <c r="F198" t="n">
-        <v>37.4169</v>
-      </c>
-      <c r="G198" t="n">
-        <v>999.45</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>1012</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1015</v>
-      </c>
-      <c r="D199" t="n">
-        <v>1016</v>
-      </c>
-      <c r="E199" t="n">
-        <v>1012</v>
-      </c>
-      <c r="F199" t="n">
-        <v>5713.3689</v>
-      </c>
-      <c r="G199" t="n">
-        <v>999.6333333333333</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>1015</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1015</v>
-      </c>
-      <c r="D200" t="n">
-        <v>1015</v>
-      </c>
-      <c r="E200" t="n">
-        <v>1015</v>
-      </c>
-      <c r="F200" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="G200" t="n">
-        <v>999.8</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>1016</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1017</v>
-      </c>
-      <c r="D201" t="n">
-        <v>1017</v>
-      </c>
-      <c r="E201" t="n">
-        <v>1015</v>
-      </c>
-      <c r="F201" t="n">
-        <v>824.2116</v>
-      </c>
-      <c r="G201" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>1017</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1018</v>
-      </c>
-      <c r="D202" t="n">
-        <v>1018</v>
-      </c>
-      <c r="E202" t="n">
-        <v>1017</v>
-      </c>
-      <c r="F202" t="n">
-        <v>4557.5747</v>
-      </c>
-      <c r="G202" t="n">
-        <v>1000.25</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>1018</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1019</v>
-      </c>
-      <c r="D203" t="n">
-        <v>1019</v>
-      </c>
-      <c r="E203" t="n">
-        <v>1018</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1380</v>
-      </c>
-      <c r="G203" t="n">
-        <v>1000.533333333333</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>1019</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1019</v>
-      </c>
-      <c r="D204" t="n">
-        <v>1019</v>
-      </c>
-      <c r="E204" t="n">
-        <v>1019</v>
-      </c>
-      <c r="F204" t="n">
-        <v>915</v>
-      </c>
-      <c r="G204" t="n">
-        <v>1000.8</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>1019</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1019</v>
-      </c>
-      <c r="D205" t="n">
-        <v>1019</v>
-      </c>
-      <c r="E205" t="n">
-        <v>1019</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1855</v>
-      </c>
-      <c r="G205" t="n">
-        <v>1001.05</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>1019</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D206" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E206" t="n">
-        <v>1019</v>
-      </c>
-      <c r="F206" t="n">
-        <v>1430</v>
-      </c>
-      <c r="G206" t="n">
-        <v>1001.433333333333</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1019</v>
-      </c>
-      <c r="D207" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E207" t="n">
-        <v>1019</v>
-      </c>
-      <c r="F207" t="n">
-        <v>456.525</v>
-      </c>
-      <c r="G207" t="n">
-        <v>1001.75</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D208" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E208" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F208" t="n">
-        <v>205</v>
-      </c>
-      <c r="G208" t="n">
-        <v>1002.083333333333</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D209" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E209" t="n">
-        <v>1017</v>
-      </c>
-      <c r="F209" t="n">
-        <v>3822.7831</v>
-      </c>
-      <c r="G209" t="n">
-        <v>1002.466666666667</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D210" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E210" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F210" t="n">
-        <v>195</v>
-      </c>
-      <c r="G210" t="n">
-        <v>1002.933333333333</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D211" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E211" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F211" t="n">
-        <v>240</v>
-      </c>
-      <c r="G211" t="n">
-        <v>1003.4</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D212" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E212" t="n">
-        <v>1019</v>
-      </c>
-      <c r="F212" t="n">
-        <v>407.0049</v>
-      </c>
-      <c r="G212" t="n">
-        <v>1003.866666666667</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D213" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E213" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F213" t="n">
-        <v>1103.6625</v>
-      </c>
-      <c r="G213" t="n">
-        <v>1004.316666666667</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D214" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E214" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F214" t="n">
-        <v>1031.0242</v>
-      </c>
-      <c r="G214" t="n">
-        <v>1004.733333333333</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D215" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E215" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F215" t="n">
-        <v>100</v>
-      </c>
-      <c r="G215" t="n">
-        <v>1005.2</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1021</v>
-      </c>
-      <c r="D216" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E216" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F216" t="n">
-        <v>4532.8126</v>
-      </c>
-      <c r="G216" t="n">
-        <v>1005.666666666667</v>
-      </c>
-      <c r="H216" t="n">
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
